--- a/fase_0/Recording List & Schedule Phase 0 FTDS-013.xlsx
+++ b/fase_0/Recording List & Schedule Phase 0 FTDS-013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="160">
   <si>
     <t>Full Time Data Science Schedule - Phase 0 // Batch 13</t>
   </si>
@@ -240,28 +240,142 @@
     <t>W1D1AM</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1WPCQqmuvvsHHIi9yDX5G1rom6Kuc31E6/view?usp=sharing</t>
+  </si>
+  <si>
     <t>W1D1PM</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xCV-nfQD82IPTwPkr4NyvfYyl0PcubEr/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://colab.research.google.com/drive/1vV1PTffLDoB-28E9ZQevu_9wjWmmhMWY?usp=sharing</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve">program input nama dan usia : </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Montserrat"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://gist.github.com/afifai/98c70433ac668a6c8a166fb23cd69cc5</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve">
+program kalkulator : </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Montserrat"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t xml:space="preserve">https://gist.github.com/afifai/0e67ee60d4b41317ea5b137162fc3c7a
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve">program input pesanan : </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Montserrat"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://gist.github.com/afifai/f514fac2a60f6a48da6fc5e6920df87f</t>
+    </r>
   </si>
   <si>
     <t>W1D2AM</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1e2w7SKs0S0Cjytp3Xn1GTXoSEMKFNX7c/view?usp=sharing</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Montserrat"/>
+        <color theme="1"/>
+        <u/>
+      </rPr>
+      <t>referensi submission github classroom:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Montserrat"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Montserrat"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.youtube.com/watch?v=ojys14Moczg</t>
+    </r>
+  </si>
+  <si>
     <t>W1D2PM</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/12hnI1asEjwB8zh0ODpvLsxYhIIwBhyuV/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://colab.research.google.com/drive/1AliuMm730RL083RvKYqBFdqwQSwei1oH?usp=sharing</t>
   </si>
   <si>
     <t>W1D3AM</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1BO1XcQvqsr2PGc88irfuEFqZ2Ib59f4j/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://colab.research.google.com/drive/1EGRyKDFiT_qRNpNmpC010ipWOZNFvTcO?usp=sharing</t>
+  </si>
+  <si>
     <t>W1D3PM</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1FygyH7uwOtIJ5T7OCjEzhtX2YSt_q430/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://colab.research.google.com/drive/1kezpFdEGe911xqMm-WKGkqGkdo-Q_O3j?usp=sharing</t>
   </si>
   <si>
     <t>W1D4AM</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1m1vr-9pOP9HuxLNR1xl2VWv2bMQ2V9uL/view?usp=sharing</t>
+  </si>
+  <si>
     <t>W1D4PM</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1lr8kqmowrO3fzCWrtlcfM-54qcRl2Aks/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://colab.research.google.com/drive/1a78FnvMFPdEMANnysiGv60TPfwhIIz0h?usp=sharing</t>
+  </si>
+  <si>
     <t>W1D5AM</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YwON3g5ez_fQQCaG0rUbfHNQNhGvShoB/view?usp=sharing</t>
   </si>
   <si>
     <t>W2D1PM</t>
@@ -270,10 +384,22 @@
     <t>Vector</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1sHNnp5AObAc1hJ1nwdFT-vYxs8KHg80D/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://colab.research.google.com/drive/1ixvfWCeuhppTtUub-1ZT04kw2eXFj90Z?usp=sharing</t>
+  </si>
+  <si>
     <t>W2D2AM</t>
   </si>
   <si>
     <t>Matrix</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XLPEsvQVJUeeJw_6-TBxz7p9ZogY-edH/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://colab.research.google.com/drive/17Af88MMMw3cA3FG0uX9FSJE8mglYBIE_?usp=sharing</t>
   </si>
   <si>
     <t>W2D2PM</t>
@@ -282,10 +408,22 @@
     <t>Eigendecomposition</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1j9U0cs4PKRgHmEs0USsHApjaHjUoopMP/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://colab.research.google.com/drive/1V70FVtMmTtccIrif-epSC5hJBAPWXWA9?usp=sharing</t>
+  </si>
+  <si>
     <t>W2D3AM</t>
   </si>
   <si>
     <t>Calculus - Derivative</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1RfprWOCnQ5w67sbgcTq-mOCHUDC1S8HL/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://colab.research.google.com/drive/1kG7PZ9861w5gYhfNbYhO8JPeAnK6-I_n?usp=sharing</t>
   </si>
   <si>
     <t>W2D3PM</t>
@@ -294,10 +432,22 @@
     <t>Calculus - Integral</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1gMf1_2a_sG6W7t7Hu6Wp2wZ06jRm1l7v/view?usp=sharing</t>
+  </si>
+  <si>
     <t>W2D4AM</t>
   </si>
   <si>
     <t>Database &amp; SQL Basic</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15EaXKgN1u6Nzz1YbZHWcDQMFvDz1I3ik/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>SQL syntax : https://drive.google.com/file/d/1k0vFAD7hlRzdcyFahEoR72NUU8JQ5GRK/view?usp=sharing</t>
   </si>
   <si>
     <t>W2D4PM</t>
@@ -306,37 +456,102 @@
     <t>Database &amp; SQL (Groupby, Join) &amp; GCP</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1jIYt_M-R8dx-6bLAFfkpeXRWivo8mhJq/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>SQL syntax : https://drive.google.com/file/d/1SuZIcXf0F9u9kF-Tbd6BQ9HawotEHCwV/view?usp=sharing
+Extra Slide : https://docs.google.com/presentation/d/1K8uopzmowPTdjpgvXy7OviAnNaSEknegWc3SLrupUXU/edit?usp=sharing</t>
+  </si>
+  <si>
     <t>W2D5AM</t>
   </si>
   <si>
     <t>Math Solving Problem</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1vN7nEkZQ2B7Kd_VuBBJ1NpcOTc3I-QDG/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://colab.research.google.com/drive/1hK5SVEcUqG3LGs7ReyWzKZXl2kD9dKHr?usp=sharing</t>
+  </si>
+  <si>
     <t>W3D1PM</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1NX2aMPEEx2Jcqu9p7dlOVwuWvDZboRfU/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://colab.research.google.com/drive/1JRxlJpRlUIKGU6LXuiiGdWDTHeXsnQ_y?usp=sharing</t>
   </si>
   <si>
     <t>W3D2AM</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1d34Z3nR5B3H9V6q-0GNMWjDAZa4WH94R/view?usp=sharing</t>
+  </si>
+  <si>
     <t>W3D2PM</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1mFCUoNtSSSonsNo2ldW5jT6t9XBpjTPu/view?usp=sharing</t>
   </si>
   <si>
     <t>W3D3AM</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1hQoA-0zP285m7VPoaZKlhq-Z-5TiDUmT/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://colab.research.google.com/drive/1Leeh_8xaIcMQFRdQ81OXGoQM0tR_BceQ?usp=sharing</t>
+  </si>
+  <si>
     <t>W3D3PM</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1zjQ_i0UYHhqqKGW3iTEcIqA9pK99Eo3o/view?usp=sharing</t>
   </si>
   <si>
     <t>W3D4AM</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1L-loIscYrEurGPH-HtMujP151lOwZMza/view?usp=sharing</t>
+  </si>
+  <si>
     <t>W3D4PM</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1fL2Kd5ZcDSjzK3Jk4gSu_Oi7Es89AZf5/view?usp=sharing</t>
   </si>
   <si>
     <t>W3D5AM</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1iSOqaWohoSxvJl2aAG8AfG-CBl3CdSt9/view?usp=sharing</t>
+  </si>
+  <si>
     <t>W4D1PM</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Hue8aZx24D5xlRezobBdnk8nAqBCZ1JQ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://colab.research.google.com/drive/1PwsdgmMTU2BBJ2UcitkFhPZZ1y95xGGU?usp=sharing</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve">PPT Kiat-Kiat Membangun Dashboard: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Montserrat"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://docs.google.com/presentation/d/1s8qfyF69uBhFXkwR1s04nB8-OkD3LRGQ/edit?usp=sharing&amp;ouid=107276828281482207880&amp;rtpof=true&amp;sd=true</t>
+    </r>
   </si>
   <si>
     <t>W4D2AM</t>
@@ -353,6 +568,12 @@
   <si>
     <t>W4D3AM</t>
   </si>
+  <si>
+    <t>https://drive.google.com/file/d/1wN6-Lbjr3eZtw21pZyGTlG4BuiU9JeO7/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1nTXLfE1RrjB78nGxRR7meteTdN8E-tir/edit?usp=sharing&amp;ouid=113011843078353272414&amp;rtpof=true&amp;sd=true</t>
+  </si>
 </sst>
 </file>
 
@@ -362,7 +583,7 @@
     <numFmt numFmtId="164" formatCode="dddd, d mmmm yyyy"/>
     <numFmt numFmtId="165" formatCode="dddd&quot;, &quot;mmmm&quot; &quot;d&quot;, &quot;yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -405,7 +626,7 @@
     </font>
     <font>
       <u/>
-      <color rgb="FF1155CC"/>
+      <color rgb="FF0000FF"/>
       <name val="Montserrat"/>
     </font>
     <font>
@@ -414,7 +635,13 @@
       <name val="Montserrat"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Montserrat"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
       <name val="Montserrat"/>
     </font>
     <font>
@@ -565,29 +792,29 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1496,12 +1723,12 @@
         <v>Rafif</v>
       </c>
       <c r="G18" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Afif")</f>
-        <v>Afif</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Hana")</f>
+        <v>Hana</v>
       </c>
       <c r="H18" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Afif")</f>
-        <v>Afif</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Hana")</f>
+        <v>Hana</v>
       </c>
       <c r="I18" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Danu")</f>
@@ -1822,8 +2049,8 @@
         <v>21</v>
       </c>
       <c r="C26" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/1Vdq8ZZwS4CP49VRcSSjMVgmFN2lnlIPhtLEPKZFsr6Y/edit#gid=1638797077"", ""sch2022!C138:L138"")"),"-")</f>
-        <v>-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/1Vdq8ZZwS4CP49VRcSSjMVgmFN2lnlIPhtLEPKZFsr6Y/edit#gid=1638797077"", ""sch2022!C138:L138"")"),"Fahmi")</f>
+        <v>Fahmi</v>
       </c>
       <c r="D26" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Rachman")</f>
@@ -1838,12 +2065,12 @@
         <v>Hana</v>
       </c>
       <c r="G26" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Rachman")</f>
-        <v>Rachman</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Afif")</f>
+        <v>Afif</v>
       </c>
       <c r="H26" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Rachman")</f>
-        <v>Rachman</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Afif")</f>
+        <v>Afif</v>
       </c>
       <c r="I26" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fahmi")</f>
@@ -2152,8 +2379,8 @@
         <v>21</v>
       </c>
       <c r="C34" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/1Vdq8ZZwS4CP49VRcSSjMVgmFN2lnlIPhtLEPKZFsr6Y/edit#gid=1638797077"", ""sch2022!C144:L144"")"),"-")</f>
-        <v>-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/1Vdq8ZZwS4CP49VRcSSjMVgmFN2lnlIPhtLEPKZFsr6Y/edit#gid=1638797077"", ""sch2022!C144:L144"")"),"Irfan")</f>
+        <v>Irfan</v>
       </c>
       <c r="D34" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fahmi")</f>
@@ -30786,7 +31013,9 @@
       <c r="D5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="32" t="s">
+        <v>75</v>
+      </c>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
@@ -30816,14 +31045,20 @@
         <v>73</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="E6" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>79</v>
+      </c>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
@@ -30851,14 +31086,18 @@
         <v>73</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="34"/>
+      <c r="E7" s="35" t="s">
+        <v>81</v>
+      </c>
       <c r="F7" s="26"/>
-      <c r="G7" s="28"/>
+      <c r="G7" s="34" t="s">
+        <v>82</v>
+      </c>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
@@ -30886,13 +31125,17 @@
         <v>73</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D8" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="28"/>
+      <c r="E8" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>85</v>
+      </c>
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
@@ -30921,13 +31164,17 @@
         <v>73</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D9" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="36"/>
+      <c r="E9" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>88</v>
+      </c>
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
@@ -30956,13 +31203,17 @@
         <v>73</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="28"/>
+      <c r="E10" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>91</v>
+      </c>
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
@@ -30991,12 +31242,14 @@
         <v>73</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="28"/>
+      <c r="E11" s="32" t="s">
+        <v>93</v>
+      </c>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
@@ -31026,13 +31279,17 @@
         <v>73</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D12" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="26"/>
+      <c r="E12" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>96</v>
+      </c>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
@@ -31061,12 +31318,14 @@
         <v>73</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D13" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="28"/>
+      <c r="E13" s="32" t="s">
+        <v>98</v>
+      </c>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
@@ -31096,13 +31355,17 @@
         <v>73</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
+      <c r="E14" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>102</v>
+      </c>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
@@ -31131,13 +31394,17 @@
         <v>73</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
+      <c r="E15" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>106</v>
+      </c>
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
@@ -31166,13 +31433,17 @@
         <v>73</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="28"/>
+      <c r="E16" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>110</v>
+      </c>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
@@ -31201,13 +31472,17 @@
         <v>73</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="28"/>
+      <c r="E17" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>114</v>
+      </c>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
@@ -31236,12 +31511,14 @@
         <v>73</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
-      <c r="E18" s="34"/>
+      <c r="E18" s="35" t="s">
+        <v>117</v>
+      </c>
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
@@ -31271,14 +31548,20 @@
         <v>73</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="28"/>
+      <c r="E19" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>122</v>
+      </c>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
       <c r="J19" s="26"/>
@@ -31306,14 +31589,20 @@
         <v>73</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="33"/>
+      <c r="E20" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>126</v>
+      </c>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
       <c r="J20" s="26"/>
@@ -31341,13 +31630,17 @@
         <v>73</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="33"/>
+      <c r="E21" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>130</v>
+      </c>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
@@ -31376,13 +31669,17 @@
         <v>73</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="D22" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="26"/>
+      <c r="E22" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>133</v>
+      </c>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
@@ -31411,12 +31708,14 @@
         <v>73</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="D23" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="33"/>
+      <c r="E23" s="34" t="s">
+        <v>135</v>
+      </c>
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
@@ -31446,12 +31745,14 @@
         <v>73</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="D24" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="39"/>
+      <c r="E24" s="38" t="s">
+        <v>137</v>
+      </c>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
@@ -31481,14 +31782,18 @@
         <v>73</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="D25" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
+      <c r="E25" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="39"/>
       <c r="I25" s="26"/>
       <c r="J25" s="26"/>
       <c r="K25" s="26"/>
@@ -31515,14 +31820,16 @@
         <v>73</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="D26" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
+      <c r="E26" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
       <c r="I26" s="26"/>
       <c r="J26" s="26"/>
       <c r="K26" s="26"/>
@@ -31549,14 +31856,16 @@
         <v>73</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="D27" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
+      <c r="E27" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
       <c r="K27" s="26"/>
@@ -31583,12 +31892,14 @@
         <v>73</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="D28" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="28"/>
+      <c r="E28" s="32" t="s">
+        <v>146</v>
+      </c>
       <c r="F28" s="28"/>
       <c r="H28" s="26"/>
       <c r="I28" s="26"/>
@@ -31617,14 +31928,16 @@
         <v>73</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="D29" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="28"/>
+      <c r="E29" s="32" t="s">
+        <v>148</v>
+      </c>
       <c r="F29" s="26"/>
-      <c r="G29" s="34"/>
+      <c r="G29" s="39"/>
       <c r="H29" s="26"/>
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
@@ -31652,14 +31965,20 @@
         <v>73</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="D30" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="26"/>
+      <c r="E30" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>152</v>
+      </c>
       <c r="H30" s="26"/>
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
@@ -31687,12 +32006,12 @@
         <v>73</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
-      <c r="E31" s="34"/>
+      <c r="E31" s="39"/>
       <c r="F31" s="28"/>
       <c r="G31" s="26"/>
       <c r="H31" s="26"/>
@@ -31722,10 +32041,10 @@
         <v>73</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
@@ -31757,13 +32076,17 @@
         <v>73</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="D33" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
+      <c r="E33" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>159</v>
+      </c>
       <c r="G33" s="26"/>
       <c r="H33" s="26"/>
       <c r="I33" s="26"/>
@@ -57952,6 +58275,52 @@
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="G27:G28"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="E5"/>
+    <hyperlink r:id="rId2" ref="E6"/>
+    <hyperlink r:id="rId3" ref="F6"/>
+    <hyperlink r:id="rId4" ref="G6"/>
+    <hyperlink r:id="rId5" ref="E7"/>
+    <hyperlink r:id="rId6" ref="G7"/>
+    <hyperlink r:id="rId7" ref="E8"/>
+    <hyperlink r:id="rId8" ref="F8"/>
+    <hyperlink r:id="rId9" ref="E9"/>
+    <hyperlink r:id="rId10" ref="F9"/>
+    <hyperlink r:id="rId11" ref="E10"/>
+    <hyperlink r:id="rId12" ref="F10"/>
+    <hyperlink r:id="rId13" ref="E11"/>
+    <hyperlink r:id="rId14" ref="E12"/>
+    <hyperlink r:id="rId15" ref="F12"/>
+    <hyperlink r:id="rId16" ref="E13"/>
+    <hyperlink r:id="rId17" ref="E14"/>
+    <hyperlink r:id="rId18" ref="F14"/>
+    <hyperlink r:id="rId19" ref="E15"/>
+    <hyperlink r:id="rId20" ref="F15"/>
+    <hyperlink r:id="rId21" ref="E16"/>
+    <hyperlink r:id="rId22" ref="F16"/>
+    <hyperlink r:id="rId23" ref="E17"/>
+    <hyperlink r:id="rId24" ref="F17"/>
+    <hyperlink r:id="rId25" ref="E18"/>
+    <hyperlink r:id="rId26" ref="E19"/>
+    <hyperlink r:id="rId27" ref="E20"/>
+    <hyperlink r:id="rId28" ref="E21"/>
+    <hyperlink r:id="rId29" ref="F21"/>
+    <hyperlink r:id="rId30" ref="E22"/>
+    <hyperlink r:id="rId31" ref="F22"/>
+    <hyperlink r:id="rId32" ref="E23"/>
+    <hyperlink r:id="rId33" ref="E24"/>
+    <hyperlink r:id="rId34" ref="E25"/>
+    <hyperlink r:id="rId35" ref="F25"/>
+    <hyperlink r:id="rId36" ref="E26"/>
+    <hyperlink r:id="rId37" ref="E27"/>
+    <hyperlink r:id="rId38" ref="E28"/>
+    <hyperlink r:id="rId39" ref="E29"/>
+    <hyperlink r:id="rId40" ref="E30"/>
+    <hyperlink r:id="rId41" ref="F30"/>
+    <hyperlink r:id="rId42" ref="G30"/>
+    <hyperlink r:id="rId43" ref="E33"/>
+    <hyperlink r:id="rId44" ref="F33"/>
+  </hyperlinks>
+  <drawing r:id="rId45"/>
 </worksheet>
 </file>